--- a/data/pca/factorExposure/factorExposure_2010-01-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-01-11.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +695,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.00381812172672345</v>
+        <v>0.01719894376867558</v>
       </c>
       <c r="C2">
-        <v>-0.0167696675463047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.001221018585665765</v>
+      </c>
+      <c r="D2">
+        <v>0.005593787809176768</v>
+      </c>
+      <c r="E2">
+        <v>0.0005414746447224312</v>
+      </c>
+      <c r="F2">
+        <v>-0.01091291536722074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +748,39 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.02925790107888125</v>
+        <v>0.09439223513776207</v>
       </c>
       <c r="C4">
-        <v>-0.126656800213528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0157296862915232</v>
+      </c>
+      <c r="D4">
+        <v>0.08408202921343848</v>
+      </c>
+      <c r="E4">
+        <v>-0.02937048685450364</v>
+      </c>
+      <c r="F4">
+        <v>0.03066045739606331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +788,239 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03647649193999453</v>
+        <v>0.1573062653169369</v>
       </c>
       <c r="C6">
-        <v>-0.1094956292478081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.02536679259462358</v>
+      </c>
+      <c r="D6">
+        <v>-0.02429826719381649</v>
+      </c>
+      <c r="E6">
+        <v>-0.00894741885213853</v>
+      </c>
+      <c r="F6">
+        <v>0.04668388323023624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.009613621672897102</v>
+        <v>0.0610653099572879</v>
       </c>
       <c r="C7">
-        <v>-0.07682598136031141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.0008041884401272897</v>
+      </c>
+      <c r="D7">
+        <v>0.05241073384871875</v>
+      </c>
+      <c r="E7">
+        <v>-0.01089604295334041</v>
+      </c>
+      <c r="F7">
+        <v>0.04368316320748328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003255512512730392</v>
+        <v>0.05801652047004898</v>
       </c>
       <c r="C8">
-        <v>-0.05925752551940091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.013392277540102</v>
+      </c>
+      <c r="D8">
+        <v>0.03284269238152152</v>
+      </c>
+      <c r="E8">
+        <v>-0.01729057055665477</v>
+      </c>
+      <c r="F8">
+        <v>-0.02819865272113519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02447605825365898</v>
+        <v>0.07216773683245718</v>
       </c>
       <c r="C9">
-        <v>-0.1033519503903689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.01163395431388075</v>
+      </c>
+      <c r="D9">
+        <v>0.08566711591890788</v>
+      </c>
+      <c r="E9">
+        <v>-0.02379244331749248</v>
+      </c>
+      <c r="F9">
+        <v>0.0469715747698773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.01082442779653833</v>
+        <v>0.09322976290623362</v>
       </c>
       <c r="C10">
-        <v>-0.0182671987207552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.01944853796470613</v>
+      </c>
+      <c r="D10">
+        <v>-0.170611036892191</v>
+      </c>
+      <c r="E10">
+        <v>0.03731123352760408</v>
+      </c>
+      <c r="F10">
+        <v>-0.05405080644050142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.02860447778478188</v>
+        <v>0.08757694750306357</v>
       </c>
       <c r="C11">
-        <v>-0.1127457270368434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.01110727473285029</v>
+      </c>
+      <c r="D11">
+        <v>0.1169994072859395</v>
+      </c>
+      <c r="E11">
+        <v>-0.04738362092477093</v>
+      </c>
+      <c r="F11">
+        <v>0.01909499387878425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.02602106695736852</v>
+        <v>0.09242856264879144</v>
       </c>
       <c r="C12">
-        <v>-0.1222957032755084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.008180505195570016</v>
+      </c>
+      <c r="D12">
+        <v>0.1315950182638928</v>
+      </c>
+      <c r="E12">
+        <v>-0.04788216771648985</v>
+      </c>
+      <c r="F12">
+        <v>0.02424335178940479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.009025953837862151</v>
+        <v>0.04274778384750057</v>
       </c>
       <c r="C13">
-        <v>-0.04345200168071165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.003630396754437278</v>
+      </c>
+      <c r="D13">
+        <v>0.05069478680736933</v>
+      </c>
+      <c r="E13">
+        <v>0.009939243409228303</v>
+      </c>
+      <c r="F13">
+        <v>0.002053499809384061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01609536306421731</v>
+        <v>0.02276963807215781</v>
       </c>
       <c r="C14">
-        <v>-0.02608295347309606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01400163715589976</v>
+      </c>
+      <c r="D14">
+        <v>0.03405333234647871</v>
+      </c>
+      <c r="E14">
+        <v>-0.01752958823026243</v>
+      </c>
+      <c r="F14">
+        <v>0.0136766480078758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01014565616271862</v>
+        <v>0.03129919989777939</v>
       </c>
       <c r="C15">
-        <v>-0.02798684873253728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005033839970142942</v>
+      </c>
+      <c r="D15">
+        <v>0.04577175615217866</v>
+      </c>
+      <c r="E15">
+        <v>-0.006832784119217471</v>
+      </c>
+      <c r="F15">
+        <v>0.02131909866298592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.01791795667546906</v>
+        <v>0.07336832348798847</v>
       </c>
       <c r="C16">
-        <v>-0.1152165310273222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.002152946155388038</v>
+      </c>
+      <c r="D16">
+        <v>0.1267030661378858</v>
+      </c>
+      <c r="E16">
+        <v>-0.06227967006143532</v>
+      </c>
+      <c r="F16">
+        <v>0.02237793365100797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,21 +1028,39 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02812678742762032</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.00343218953743555</v>
+      </c>
+      <c r="D18">
+        <v>0.02161706966634655</v>
+      </c>
+      <c r="E18">
+        <v>0.006273673053239907</v>
+      </c>
+      <c r="F18">
+        <v>-0.005271189391761485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1068,159 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01128510876343219</v>
+        <v>0.06100828995737782</v>
       </c>
       <c r="C20">
-        <v>-0.06829053029824581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0007016893251078127</v>
+      </c>
+      <c r="D20">
+        <v>0.07682900108305991</v>
+      </c>
+      <c r="E20">
+        <v>-0.05595422126303341</v>
+      </c>
+      <c r="F20">
+        <v>0.02167055379054662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01241970022841845</v>
+        <v>0.03992209558912539</v>
       </c>
       <c r="C21">
-        <v>-0.02155835487165872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.006656510443577583</v>
+      </c>
+      <c r="D21">
+        <v>0.03690223336042235</v>
+      </c>
+      <c r="E21">
+        <v>0.00588256126920746</v>
+      </c>
+      <c r="F21">
+        <v>-0.02620907994908234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.004089278909762554</v>
+        <v>0.04430505885351763</v>
       </c>
       <c r="C22">
-        <v>-0.02745455413001877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.001073121225090461</v>
+      </c>
+      <c r="D22">
+        <v>0.001008661467552978</v>
+      </c>
+      <c r="E22">
+        <v>-0.02732507691646825</v>
+      </c>
+      <c r="F22">
+        <v>-0.03000768250105133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.004077705479106696</v>
+        <v>0.04429011291615869</v>
       </c>
       <c r="C23">
-        <v>-0.02738888833469751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.001068830797422479</v>
+      </c>
+      <c r="D23">
+        <v>0.00101378649067609</v>
+      </c>
+      <c r="E23">
+        <v>-0.02752681564951765</v>
+      </c>
+      <c r="F23">
+        <v>-0.02997338129439487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.01810536989718516</v>
+        <v>0.0796724735117196</v>
       </c>
       <c r="C24">
-        <v>-0.1180349449747639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.002749435775404701</v>
+      </c>
+      <c r="D24">
+        <v>0.1210034885224595</v>
+      </c>
+      <c r="E24">
+        <v>-0.05063018234981936</v>
+      </c>
+      <c r="F24">
+        <v>0.02307040724251595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.02336636180275019</v>
+        <v>0.08457361111760149</v>
       </c>
       <c r="C25">
-        <v>-0.121270326907088</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.004893284051774614</v>
+      </c>
+      <c r="D25">
+        <v>0.1097606360916608</v>
+      </c>
+      <c r="E25">
+        <v>-0.03356243713186072</v>
+      </c>
+      <c r="F25">
+        <v>0.02437695069517148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.02325882313656936</v>
+        <v>0.05757545096147733</v>
       </c>
       <c r="C26">
-        <v>-0.05153095506800309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.01465961696865185</v>
+      </c>
+      <c r="D26">
+        <v>0.04062716905330847</v>
+      </c>
+      <c r="E26">
+        <v>-0.02777949229688967</v>
+      </c>
+      <c r="F26">
+        <v>-0.01133437996014465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,164 +1228,299 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.003545038932364044</v>
+        <v>0.140284543432217</v>
       </c>
       <c r="C28">
-        <v>-0.0129861197475243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.01879536892544924</v>
+      </c>
+      <c r="D28">
+        <v>-0.2636850569860474</v>
+      </c>
+      <c r="E28">
+        <v>0.06777866987031721</v>
+      </c>
+      <c r="F28">
+        <v>0.008911842252594344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01286857975117388</v>
+        <v>0.02716688135880298</v>
       </c>
       <c r="C29">
-        <v>-0.03097828146525572</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.008166487080641313</v>
+      </c>
+      <c r="D29">
+        <v>0.03291590173963297</v>
+      </c>
+      <c r="E29">
+        <v>-0.01137858659256837</v>
+      </c>
+      <c r="F29">
+        <v>-0.01115731347398398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.01496266584373144</v>
+        <v>0.06241726786676179</v>
       </c>
       <c r="C30">
-        <v>-0.1282605020803275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.004207676294780835</v>
+      </c>
+      <c r="D30">
+        <v>0.08711431564021536</v>
+      </c>
+      <c r="E30">
+        <v>-0.0212695683296859</v>
+      </c>
+      <c r="F30">
+        <v>0.08005979787303313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02148120456034382</v>
+        <v>0.04953747005383249</v>
       </c>
       <c r="C31">
-        <v>-0.03782219001936355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01520988460018594</v>
+      </c>
+      <c r="D31">
+        <v>0.02517262580795874</v>
+      </c>
+      <c r="E31">
+        <v>-0.02754305026089324</v>
+      </c>
+      <c r="F31">
+        <v>-0.002843648667967231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006367225053985711</v>
+        <v>0.04893188474075174</v>
       </c>
       <c r="C32">
-        <v>-0.05459521924757747</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.001330037597488854</v>
+      </c>
+      <c r="D32">
+        <v>0.03677824555959728</v>
+      </c>
+      <c r="E32">
+        <v>-0.03110388209151356</v>
+      </c>
+      <c r="F32">
+        <v>-0.0002251245590419289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02176669778129726</v>
+        <v>0.0905872316452057</v>
       </c>
       <c r="C33">
-        <v>-0.1157497140134018</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.008329518487118047</v>
+      </c>
+      <c r="D33">
+        <v>0.09806307543910196</v>
+      </c>
+      <c r="E33">
+        <v>-0.04520575744714277</v>
+      </c>
+      <c r="F33">
+        <v>0.03421102695546185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.02544333655564766</v>
+        <v>0.06779640248114496</v>
       </c>
       <c r="C34">
-        <v>-0.09986668449073541</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01134312315742409</v>
+      </c>
+      <c r="D34">
+        <v>0.1070588624780048</v>
+      </c>
+      <c r="E34">
+        <v>-0.03541393328354707</v>
+      </c>
+      <c r="F34">
+        <v>0.03176640582937954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.003730771351587289</v>
+        <v>0.02357909148484586</v>
       </c>
       <c r="C35">
-        <v>-0.01584863561975317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.002373458707878904</v>
+      </c>
+      <c r="D35">
+        <v>0.01233393458040592</v>
+      </c>
+      <c r="E35">
+        <v>-0.01149430357505021</v>
+      </c>
+      <c r="F35">
+        <v>0.0006342105087222503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0106429434046959</v>
+        <v>0.02621024638116703</v>
       </c>
       <c r="C36">
-        <v>-0.02998862365917709</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.007198038952047911</v>
+      </c>
+      <c r="D36">
+        <v>0.04006389616544407</v>
+      </c>
+      <c r="E36">
+        <v>-0.0156957514638136</v>
+      </c>
+      <c r="F36">
+        <v>0.01455156514817483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0001219145940141493</v>
       </c>
       <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-5.64705979379433e-05</v>
+      </c>
+      <c r="D37">
+        <v>-0.0001381284368250719</v>
+      </c>
+      <c r="E37">
+        <v>-4.566076697196307e-06</v>
+      </c>
+      <c r="F37">
+        <v>0.0001338644826400537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0005126268853340539</v>
+        <v>0.001236523654261336</v>
       </c>
       <c r="C38">
-        <v>-0.0039490097242119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.0001690369124351769</v>
+      </c>
+      <c r="D38">
+        <v>0.0007429509877425314</v>
+      </c>
+      <c r="E38">
+        <v>-0.0008905132448531951</v>
+      </c>
+      <c r="F38">
+        <v>-0.0006970608378100078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04091776056851056</v>
+        <v>0.1071718832082055</v>
       </c>
       <c r="C39">
-        <v>-0.1820955807462811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.01662209972650649</v>
+      </c>
+      <c r="D39">
+        <v>0.1532109528170117</v>
+      </c>
+      <c r="E39">
+        <v>-0.05968582290236639</v>
+      </c>
+      <c r="F39">
+        <v>0.02691585188152671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01125928358822467</v>
+        <v>0.03979403632756906</v>
       </c>
       <c r="C40">
-        <v>-0.0154011714448996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.007235780605557737</v>
+      </c>
+      <c r="D40">
+        <v>0.03186697335239062</v>
+      </c>
+      <c r="E40">
+        <v>-0.002963601096705914</v>
+      </c>
+      <c r="F40">
+        <v>-0.01678515226802247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01107718585065192</v>
+        <v>0.02631554493458011</v>
       </c>
       <c r="C41">
-        <v>-0.02100988469975398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.00652811303423465</v>
+      </c>
+      <c r="D41">
+        <v>0.01151300967577587</v>
+      </c>
+      <c r="E41">
+        <v>-0.01244637025214289</v>
+      </c>
+      <c r="F41">
+        <v>-0.006955772753106683</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1528,59 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01300012680867703</v>
+        <v>0.03987217456324154</v>
       </c>
       <c r="C43">
-        <v>-0.02793147750420283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.006738296638007259</v>
+      </c>
+      <c r="D43">
+        <v>0.0210419452570404</v>
+      </c>
+      <c r="E43">
+        <v>-0.02520106711196703</v>
+      </c>
+      <c r="F43">
+        <v>-0.01270906920381865</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.03048111413276291</v>
+        <v>0.07789005083448181</v>
       </c>
       <c r="C44">
-        <v>-0.1373159894388951</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.02066185811676036</v>
+      </c>
+      <c r="D44">
+        <v>0.09971393997340304</v>
+      </c>
+      <c r="E44">
+        <v>-0.06761752040439743</v>
+      </c>
+      <c r="F44">
+        <v>0.151443485481127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,131 +1588,239 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.005540777778475157</v>
+        <v>0.02389497716889683</v>
       </c>
       <c r="C46">
-        <v>-0.004497513124390804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.003730990987950314</v>
+      </c>
+      <c r="D46">
+        <v>0.01285812446383517</v>
+      </c>
+      <c r="E46">
+        <v>-0.02178976768246561</v>
+      </c>
+      <c r="F46">
+        <v>-0.004476314826604982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.009989115540013747</v>
+        <v>0.05026882613966524</v>
       </c>
       <c r="C47">
-        <v>-0.03528685374765619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.003562735476139175</v>
+      </c>
+      <c r="D47">
+        <v>0.01353107696592275</v>
+      </c>
+      <c r="E47">
+        <v>-0.02293277252423555</v>
+      </c>
+      <c r="F47">
+        <v>-0.03296432766920881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01149517860308058</v>
+        <v>0.04882081329584379</v>
       </c>
       <c r="C48">
-        <v>-0.0508313666288751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.002589032327163239</v>
+      </c>
+      <c r="D48">
+        <v>0.05055815642247525</v>
+      </c>
+      <c r="E48">
+        <v>0.00662533528230411</v>
+      </c>
+      <c r="F48">
+        <v>0.00861200237186102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.03523340442538067</v>
+        <v>0.2006873941988572</v>
       </c>
       <c r="C49">
-        <v>-0.1993195563026187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.0186849963918016</v>
+      </c>
+      <c r="D49">
+        <v>-0.0102616058638874</v>
+      </c>
+      <c r="E49">
+        <v>-0.03067565117425312</v>
+      </c>
+      <c r="F49">
+        <v>0.04021022680442476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.01808342968774272</v>
+        <v>0.04962384419772123</v>
       </c>
       <c r="C50">
-        <v>-0.0428798434910465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01118737061297756</v>
+      </c>
+      <c r="D50">
+        <v>0.02416327018696603</v>
+      </c>
+      <c r="E50">
+        <v>-0.02976653967818126</v>
+      </c>
+      <c r="F50">
+        <v>0.007580510748690864</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0004513280338919337</v>
+        <v>0.0009916476887213701</v>
       </c>
       <c r="C51">
-        <v>-0.002705525632945887</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.0002898482736558873</v>
+      </c>
+      <c r="D51">
+        <v>-0.0007260375719766497</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001915994194459694</v>
+      </c>
+      <c r="F51">
+        <v>0.00328506261865799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.02893890435677396</v>
+        <v>0.1466778388364273</v>
       </c>
       <c r="C52">
-        <v>-0.1509860996455935</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.01532973817835187</v>
+      </c>
+      <c r="D52">
+        <v>0.04487116076038602</v>
+      </c>
+      <c r="E52">
+        <v>-0.02026700146327167</v>
+      </c>
+      <c r="F52">
+        <v>0.04234455203767062</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.02993562474022626</v>
+        <v>0.1743219529505665</v>
       </c>
       <c r="C53">
-        <v>-0.1710226970235245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.01864444926711963</v>
+      </c>
+      <c r="D53">
+        <v>0.003537702475132343</v>
+      </c>
+      <c r="E53">
+        <v>-0.03103151670022018</v>
+      </c>
+      <c r="F53">
+        <v>0.07539448744872365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01520349532634047</v>
+        <v>0.02169080124466661</v>
       </c>
       <c r="C54">
-        <v>-0.04484691881770859</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01255925303662671</v>
+      </c>
+      <c r="D54">
+        <v>0.03400598777370159</v>
+      </c>
+      <c r="E54">
+        <v>-0.01713321636159029</v>
+      </c>
+      <c r="F54">
+        <v>-0.003118020502868421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.02345025779509163</v>
+        <v>0.1143968761081186</v>
       </c>
       <c r="C55">
-        <v>-0.085946935994442</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01645769590277183</v>
+      </c>
+      <c r="D55">
+        <v>0.008499161346601235</v>
+      </c>
+      <c r="E55">
+        <v>-0.02797184015714331</v>
+      </c>
+      <c r="F55">
+        <v>0.04795612805058556</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.03098181968002489</v>
+        <v>0.178789716622446</v>
       </c>
       <c r="C56">
-        <v>-0.1638193234952474</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0159647940020836</v>
+      </c>
+      <c r="D56">
+        <v>-0.0003504818254566728</v>
+      </c>
+      <c r="E56">
+        <v>-0.03615897385540132</v>
+      </c>
+      <c r="F56">
+        <v>0.05383437093572394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,494 +1828,899 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.01234581613798596</v>
+        <v>0.04616895489181595</v>
       </c>
       <c r="C58">
-        <v>-0.04906305287162296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.001062012568936029</v>
+      </c>
+      <c r="D58">
+        <v>0.06732116638895658</v>
+      </c>
+      <c r="E58">
+        <v>-0.02741008118831529</v>
+      </c>
+      <c r="F58">
+        <v>-0.03736873182074123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.01072317888543282</v>
+        <v>0.1683525010825596</v>
       </c>
       <c r="C59">
-        <v>-0.06608106074445336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.01956126136415655</v>
+      </c>
+      <c r="D59">
+        <v>-0.2205401028443303</v>
+      </c>
+      <c r="E59">
+        <v>0.04486015469273325</v>
+      </c>
+      <c r="F59">
+        <v>-0.03381956092097176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.02282471904211282</v>
+        <v>0.2339763785068038</v>
       </c>
       <c r="C60">
-        <v>-0.2752106956232342</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002691589028007544</v>
+      </c>
+      <c r="D60">
+        <v>0.03941629962342626</v>
+      </c>
+      <c r="E60">
+        <v>-0.01052333095598425</v>
+      </c>
+      <c r="F60">
+        <v>-0.002495832527633456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.02865839933237836</v>
+        <v>0.08333474909569512</v>
       </c>
       <c r="C61">
-        <v>-0.1318116752567646</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.01262093221172116</v>
+      </c>
+      <c r="D61">
+        <v>0.115600004890229</v>
+      </c>
+      <c r="E61">
+        <v>-0.03920016975119613</v>
+      </c>
+      <c r="F61">
+        <v>0.009954048754546819</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.03285682049231699</v>
+        <v>0.1702243376302952</v>
       </c>
       <c r="C62">
-        <v>-0.1642530628089565</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.01932266233263476</v>
+      </c>
+      <c r="D62">
+        <v>0.006797941699982599</v>
+      </c>
+      <c r="E62">
+        <v>-0.03540938574265558</v>
+      </c>
+      <c r="F62">
+        <v>0.03593712355872753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01133521447792565</v>
+        <v>0.04453427761734423</v>
       </c>
       <c r="C63">
-        <v>-0.05517455925931589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.002404280376332195</v>
+      </c>
+      <c r="D63">
+        <v>0.05758693321202079</v>
+      </c>
+      <c r="E63">
+        <v>-0.02005973931411709</v>
+      </c>
+      <c r="F63">
+        <v>0.00441634748498077</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.02217939060534201</v>
+        <v>0.1110711259569267</v>
       </c>
       <c r="C64">
-        <v>-0.09935613055264292</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.01168846041574684</v>
+      </c>
+      <c r="D64">
+        <v>0.04167684543252424</v>
+      </c>
+      <c r="E64">
+        <v>-0.02315254086502864</v>
+      </c>
+      <c r="F64">
+        <v>0.02634549592661117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.03669970545059486</v>
+        <v>0.1472002429974934</v>
       </c>
       <c r="C65">
-        <v>-0.1019147317927683</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03231678681619165</v>
+      </c>
+      <c r="D65">
+        <v>-0.04306717530631685</v>
+      </c>
+      <c r="E65">
+        <v>-0.003100180775595931</v>
+      </c>
+      <c r="F65">
+        <v>0.03936372059357961</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.03962718287605644</v>
+        <v>0.1275583523959082</v>
       </c>
       <c r="C66">
-        <v>-0.2125840763801972</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.01472134351169297</v>
+      </c>
+      <c r="D66">
+        <v>0.141142109392427</v>
+      </c>
+      <c r="E66">
+        <v>-0.06743278955936274</v>
+      </c>
+      <c r="F66">
+        <v>0.02999936395502229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.01417350541656595</v>
+        <v>0.06257159043402176</v>
       </c>
       <c r="C67">
-        <v>-0.06050438233118054</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.003194864589981571</v>
+      </c>
+      <c r="D67">
+        <v>0.05526981502527469</v>
+      </c>
+      <c r="E67">
+        <v>-0.01745508222802263</v>
+      </c>
+      <c r="F67">
+        <v>-0.03229154856600543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.01444840264361084</v>
+        <v>0.1154611578559608</v>
       </c>
       <c r="C68">
-        <v>-0.01104294166351185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.02882946612409396</v>
+      </c>
+      <c r="D68">
+        <v>-0.2595465641835194</v>
+      </c>
+      <c r="E68">
+        <v>0.08598969270538014</v>
+      </c>
+      <c r="F68">
+        <v>0.005679775795657647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.005545718667325219</v>
+        <v>0.03973228375463522</v>
       </c>
       <c r="C69">
-        <v>-0.0325804573156552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.00131325761767082</v>
+      </c>
+      <c r="D69">
+        <v>0.007081614578943271</v>
+      </c>
+      <c r="E69">
+        <v>-0.02325019729423566</v>
+      </c>
+      <c r="F69">
+        <v>-0.0009269714664568893</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.001813335497827973</v>
+        <v>0.06333855252923108</v>
       </c>
       <c r="C70">
-        <v>-0.02854725123786288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.02814916011187305</v>
+      </c>
+      <c r="D70">
+        <v>0.02646545399186755</v>
+      </c>
+      <c r="E70">
+        <v>0.04306444655834425</v>
+      </c>
+      <c r="F70">
+        <v>-0.1862977795311076</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.01798343022165587</v>
+        <v>0.1345219182018848</v>
       </c>
       <c r="C71">
-        <v>-0.01349907882069718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.03384818985454904</v>
+      </c>
+      <c r="D71">
+        <v>-0.2735397923604676</v>
+      </c>
+      <c r="E71">
+        <v>0.09584893528772426</v>
+      </c>
+      <c r="F71">
+        <v>0.01179509322588878</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.03473046540509429</v>
+        <v>0.140693787300767</v>
       </c>
       <c r="C72">
-        <v>-0.115406786192567</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.02585082244296519</v>
+      </c>
+      <c r="D72">
+        <v>-0.0005879774987104789</v>
+      </c>
+      <c r="E72">
+        <v>-0.03969279307627775</v>
+      </c>
+      <c r="F72">
+        <v>0.03468251607556531</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.03197150853744216</v>
+        <v>0.2007638413715976</v>
       </c>
       <c r="C73">
-        <v>-0.1999136444495439</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.01296103833911438</v>
+      </c>
+      <c r="D73">
+        <v>0.01497651916440121</v>
+      </c>
+      <c r="E73">
+        <v>-0.06445358912189433</v>
+      </c>
+      <c r="F73">
+        <v>0.03927543186114792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.01899493323136698</v>
+        <v>0.09507815542026211</v>
       </c>
       <c r="C74">
-        <v>-0.1156931737086172</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01310859294723141</v>
+      </c>
+      <c r="D74">
+        <v>0.01762701011048814</v>
+      </c>
+      <c r="E74">
+        <v>-0.04459263277580988</v>
+      </c>
+      <c r="F74">
+        <v>0.05719709212410218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.04037668944951776</v>
+        <v>0.129017388780275</v>
       </c>
       <c r="C75">
-        <v>-0.1363899226042737</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0275628186302931</v>
+      </c>
+      <c r="D75">
+        <v>0.02962340191480206</v>
+      </c>
+      <c r="E75">
+        <v>-0.05865048865555209</v>
+      </c>
+      <c r="F75">
+        <v>0.01913673964448892</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0004184367341607751</v>
+        <v>0.001115853315291917</v>
       </c>
       <c r="C76">
-        <v>-0.00361322954196904</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0003037692278651707</v>
+      </c>
+      <c r="D76">
+        <v>-0.0008304247393411237</v>
+      </c>
+      <c r="E76">
+        <v>-0.0002525302050151853</v>
+      </c>
+      <c r="F76">
+        <v>0.001354218014117668</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.02405151802094259</v>
+        <v>0.08185840524657943</v>
       </c>
       <c r="C77">
-        <v>-0.1072998245080855</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.008566450862929908</v>
+      </c>
+      <c r="D77">
+        <v>0.1155076370090836</v>
+      </c>
+      <c r="E77">
+        <v>-0.03943181790727054</v>
+      </c>
+      <c r="F77">
+        <v>0.02584675497966334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.0523953694025992</v>
+        <v>0.1012263814488613</v>
       </c>
       <c r="C78">
-        <v>-0.1294965317299009</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03942183689764384</v>
+      </c>
+      <c r="D78">
+        <v>0.1164836600879443</v>
+      </c>
+      <c r="E78">
+        <v>-0.07793720625039233</v>
+      </c>
+      <c r="F78">
+        <v>0.04520692079623527</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.03485947972983636</v>
+        <v>0.1647308898990703</v>
       </c>
       <c r="C79">
-        <v>-0.1464243301242208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02211838306814272</v>
+      </c>
+      <c r="D79">
+        <v>0.01482027879358711</v>
+      </c>
+      <c r="E79">
+        <v>-0.04655494040312076</v>
+      </c>
+      <c r="F79">
+        <v>0.01286704095284413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.00805568311268539</v>
+        <v>0.08231381244686096</v>
       </c>
       <c r="C80">
-        <v>-0.09465965411655575</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.0005914998730058668</v>
+      </c>
+      <c r="D80">
+        <v>0.05667526238706096</v>
+      </c>
+      <c r="E80">
+        <v>-0.03614344826015086</v>
+      </c>
+      <c r="F80">
+        <v>-0.02556283033417076</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.04176508354162474</v>
+        <v>0.123284624027864</v>
       </c>
       <c r="C81">
-        <v>-0.1490554556228084</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03150725491015328</v>
+      </c>
+      <c r="D81">
+        <v>0.01436354087316601</v>
+      </c>
+      <c r="E81">
+        <v>-0.05854683451020815</v>
+      </c>
+      <c r="F81">
+        <v>0.01855090449436373</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.03588863268352128</v>
+        <v>0.1660542663309406</v>
       </c>
       <c r="C82">
-        <v>-0.1684684355845262</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.0238491442049937</v>
+      </c>
+      <c r="D82">
+        <v>0.003840966712676073</v>
+      </c>
+      <c r="E82">
+        <v>-0.02897893503499343</v>
+      </c>
+      <c r="F82">
+        <v>0.08113986050496014</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.01781250763602323</v>
+        <v>0.06174463768634594</v>
       </c>
       <c r="C83">
-        <v>-0.07023072837949362</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.003291112452729197</v>
+      </c>
+      <c r="D83">
+        <v>0.04940940991544135</v>
+      </c>
+      <c r="E83">
+        <v>-0.005758710023122686</v>
+      </c>
+      <c r="F83">
+        <v>-0.03238812431431711</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.02543979622331246</v>
+        <v>0.05854805360534546</v>
       </c>
       <c r="C84">
-        <v>-0.07595695197330879</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.01096972584369292</v>
+      </c>
+      <c r="D84">
+        <v>0.06487066941590297</v>
+      </c>
+      <c r="E84">
+        <v>-0.00739427114083995</v>
+      </c>
+      <c r="F84">
+        <v>0.004598022918414416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.0365020184145048</v>
+        <v>0.1378868287728143</v>
       </c>
       <c r="C85">
-        <v>-0.1229328845359513</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.02746188238083338</v>
+      </c>
+      <c r="D85">
+        <v>0.01044874854053377</v>
+      </c>
+      <c r="E85">
+        <v>-0.03938423178508808</v>
+      </c>
+      <c r="F85">
+        <v>0.04679876005190618</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.00702841198096936</v>
+        <v>0.09585832951454917</v>
       </c>
       <c r="C86">
-        <v>-0.09509469060749215</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.006712446622331565</v>
+      </c>
+      <c r="D86">
+        <v>0.03951582107263337</v>
+      </c>
+      <c r="E86">
+        <v>-0.2065795878159605</v>
+      </c>
+      <c r="F86">
+        <v>-0.910582510591139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.03780298833771849</v>
+        <v>0.09673554542136711</v>
       </c>
       <c r="C87">
-        <v>-0.1062622612762365</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.02050168345364393</v>
+      </c>
+      <c r="D87">
+        <v>0.09552904734434267</v>
+      </c>
+      <c r="E87">
+        <v>0.05110249520030192</v>
+      </c>
+      <c r="F87">
+        <v>0.05162864737246302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.012410787216474</v>
+        <v>0.06091203943443783</v>
       </c>
       <c r="C88">
-        <v>-0.05997465605623363</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.002414443422494057</v>
+      </c>
+      <c r="D88">
+        <v>0.04986854052516931</v>
+      </c>
+      <c r="E88">
+        <v>-0.02493118488770676</v>
+      </c>
+      <c r="F88">
+        <v>0.01273848879149771</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.0004409511425219283</v>
+        <v>0.1316982171878166</v>
       </c>
       <c r="C89">
-        <v>-0.02894167439058473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0115525613852224</v>
+      </c>
+      <c r="D89">
+        <v>-0.2517714847251525</v>
+      </c>
+      <c r="E89">
+        <v>0.09059608070912523</v>
+      </c>
+      <c r="F89">
+        <v>-0.008018125308993517</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.01682638833891848</v>
+        <v>0.1474223127675542</v>
       </c>
       <c r="C90">
-        <v>-0.01430788253360518</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.02962371816588137</v>
+      </c>
+      <c r="D90">
+        <v>-0.2675083170556175</v>
+      </c>
+      <c r="E90">
+        <v>0.1106484032836703</v>
+      </c>
+      <c r="F90">
+        <v>-0.002648608266127747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.02212203714965259</v>
+        <v>0.1199891789682686</v>
       </c>
       <c r="C91">
-        <v>-0.09517595582560233</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01838494830373416</v>
+      </c>
+      <c r="D91">
+        <v>-0.01381655100158841</v>
+      </c>
+      <c r="E91">
+        <v>-0.05648699002601942</v>
+      </c>
+      <c r="F91">
+        <v>-0.00156091534201717</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.0008908661369286787</v>
+        <v>0.1462432306070377</v>
       </c>
       <c r="C92">
-        <v>-0.02738439588825067</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.02154189854293564</v>
+      </c>
+      <c r="D92">
+        <v>-0.29124126357987</v>
+      </c>
+      <c r="E92">
+        <v>0.1005785085588567</v>
+      </c>
+      <c r="F92">
+        <v>-0.01357238403844059</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.01296589530552429</v>
+        <v>0.1498561347443831</v>
       </c>
       <c r="C93">
-        <v>-0.02045936099520294</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.02555399138901985</v>
+      </c>
+      <c r="D93">
+        <v>-0.2674081680956956</v>
+      </c>
+      <c r="E93">
+        <v>0.07732731297986105</v>
+      </c>
+      <c r="F93">
+        <v>0.003089600096692269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.03977792657527451</v>
+        <v>0.1319042927278729</v>
       </c>
       <c r="C94">
-        <v>-0.1591896136730619</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02454344131465789</v>
+      </c>
+      <c r="D94">
+        <v>0.04210241908617923</v>
+      </c>
+      <c r="E94">
+        <v>-0.05812118212026608</v>
+      </c>
+      <c r="F94">
+        <v>0.03713311853826908</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.02399280513645482</v>
+        <v>0.1255306250109255</v>
       </c>
       <c r="C95">
-        <v>-0.1462215798271238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.004538715326201964</v>
+      </c>
+      <c r="D95">
+        <v>0.09183065319812873</v>
+      </c>
+      <c r="E95">
+        <v>-0.04656657686440781</v>
+      </c>
+      <c r="F95">
+        <v>-0.01015692060261102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.9776948928168498</v>
+        <v>0.1045395677101543</v>
       </c>
       <c r="C96">
-        <v>-0.1900635422491048</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.9879894364995471</v>
+      </c>
+      <c r="D96">
+        <v>-0.04113182854132994</v>
+      </c>
+      <c r="E96">
+        <v>-0.05640655363729678</v>
+      </c>
+      <c r="F96">
+        <v>0.04266204817765196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.003169832492449315</v>
+        <v>0.1920732906868583</v>
       </c>
       <c r="C97">
-        <v>-0.171111156788143</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.008434429533390391</v>
+      </c>
+      <c r="D97">
+        <v>-0.01761045085903288</v>
+      </c>
+      <c r="E97">
+        <v>-0.01465213038947004</v>
+      </c>
+      <c r="F97">
+        <v>-0.09272029940944314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.02325641992736741</v>
+        <v>0.2057086444085954</v>
       </c>
       <c r="C98">
-        <v>-0.1836867846849623</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.007483830598112242</v>
+      </c>
+      <c r="D98">
+        <v>0.007957911513860197</v>
+      </c>
+      <c r="E98">
+        <v>0.08613297397091098</v>
+      </c>
+      <c r="F98">
+        <v>-0.09389459852115419</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.003376064916024356</v>
+        <v>0.05567619415795898</v>
       </c>
       <c r="C99">
-        <v>-0.0550447588554437</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.004517087894534485</v>
+      </c>
+      <c r="D99">
+        <v>0.03982551930465796</v>
+      </c>
+      <c r="E99">
+        <v>-0.02411093999029296</v>
+      </c>
+      <c r="F99">
+        <v>0.0004965105410397134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.003951343092852003</v>
+        <v>0.1276912924177504</v>
       </c>
       <c r="C100">
-        <v>-0.1693830101284278</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.05289389459749009</v>
+      </c>
+      <c r="D100">
+        <v>0.3448795311697366</v>
+      </c>
+      <c r="E100">
+        <v>0.8894864401630014</v>
+      </c>
+      <c r="F100">
+        <v>-0.132764220918734</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01288233251267995</v>
+        <v>0.02708281013067031</v>
       </c>
       <c r="C101">
-        <v>-0.03098896510288857</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.00817481736894528</v>
+      </c>
+      <c r="D101">
+        <v>0.03261688036348543</v>
+      </c>
+      <c r="E101">
+        <v>-0.01080465318779605</v>
+      </c>
+      <c r="F101">
+        <v>-0.01240269733991686</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +2728,19 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +2748,33 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
